--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/10/seed2/result_data_RandomForest.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.41120000000002</v>
+        <v>-21.43680000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.416799999999997</v>
+        <v>-8.402299999999995</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.2959</v>
+        <v>11.9956</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.681800000000003</v>
+        <v>-8.678700000000003</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,10 +624,10 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.669800000000004</v>
+        <v>-8.457700000000004</v>
       </c>
       <c r="E11" t="n">
-        <v>13.06209999999999</v>
+        <v>13.16369999999999</v>
       </c>
     </row>
     <row r="12">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.1645</v>
+        <v>-21.2817</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.113700000000003</v>
+        <v>-7.983200000000008</v>
       </c>
       <c r="E21" t="n">
-        <v>13.03740000000002</v>
+        <v>13.17880000000001</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.29280000000003</v>
+        <v>-21.47710000000002</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.44000000000004</v>
+        <v>-22.38630000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
